--- a/CAPSTONE Apex Global Logistics Dashboard - Data Analyst.xlsx
+++ b/CAPSTONE Apex Global Logistics Dashboard - Data Analyst.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priya\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{79CE5CE4-1677-43C0-BA29-3C9D582D828E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617E263E-ABF8-4EA6-8A5E-F2FCC21FAA54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{6A530EA4-CBD9-45E0-831F-C19BE4B00478}"/>
   </bookViews>
@@ -453,12 +453,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -474,23 +486,319 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="48">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -563,11 +871,10 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -576,10 +883,9 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:rPr lang="en-US"/>
               <a:t>Profit by Category</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -596,11 +902,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -617,16 +922,44 @@
       <c:pivotFmt>
         <c:idx val="0"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
           </a:ln>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:glow rad="63500">
+              <a:schemeClr val="accent1">
+                <a:satMod val="175000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:glow>
+          </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="4"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="63500">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -646,9 +979,8 @@
               <a:pPr>
                 <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
+                    <a:schemeClr val="lt1">
                       <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -692,13 +1024,21 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:glow rad="63500">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -753,8 +1093,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
+        <c:gapWidth val="315"/>
+        <c:overlap val="-40"/>
         <c:axId val="1646865040"/>
         <c:axId val="1646864080"/>
       </c:barChart>
@@ -765,20 +1105,39 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -789,9 +1148,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -819,12 +1177,23 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -848,9 +1217,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -890,9 +1258,8 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -917,11 +1284,14 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -989,23 +1359,28 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
                   </a:schemeClr>
                 </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:rPr lang="en-US"/>
               <a:t>Revenue by Membership Tier</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1022,13 +1397,19 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -1043,23 +1424,47 @@
       <c:pivotFmt>
         <c:idx val="0"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="25400">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
-          <a:effectLst/>
-          <a:sp3d contourW="25400">
-            <a:contourClr>
-              <a:schemeClr val="lt1"/>
-            </a:contourClr>
-          </a:sp3d>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -1079,9 +1484,8 @@
               <a:pPr>
                 <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -1165,80 +1569,172 @@
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="25400">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
-              </a:sp3d>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
             </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="25400">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
-              </a:sp3d>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
             </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="25400">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
-              </a:sp3d>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
             </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="25400">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
-              </a:sp3d>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
             </c:spPr>
           </c:dPt>
           <c:cat>
@@ -1320,9 +1816,8 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1346,17 +1841,28 @@
     </c:extLst>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -1475,33 +1981,46 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="213">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -1510,27 +2029,569 @@
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+  </cs:chartArea>
+  <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
       </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="268">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
     </cs:spPr>
     <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
@@ -1539,9 +2600,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1560,14 +2620,6 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -1576,20 +2628,20 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -1598,13 +2650,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1616,10 +2668,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -1628,16 +2680,17 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -1655,538 +2708,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="262">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2205,14 +2738,13 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -2224,14 +2756,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -2245,9 +2777,8 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2261,12 +2792,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -2278,9 +2803,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2295,14 +2820,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -2314,14 +2838,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -2333,14 +2857,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -2349,14 +2872,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -2364,7 +2886,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -2377,11 +2899,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -2389,14 +2921,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2408,12 +2940,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2429,7 +2968,6 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2438,9 +2976,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2456,14 +2993,13 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2472,9 +3008,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2486,12 +3021,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -2623,7 +3152,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3855720" y="3291840"/>
+              <a:off x="4000500" y="3291840"/>
               <a:ext cx="1828800" cy="2581275"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2701,7 +3230,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1958340" y="3299460"/>
+              <a:off x="2103120" y="3299460"/>
               <a:ext cx="1828800" cy="2581275"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2774,7 +3303,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2186940" y="1303020"/>
+              <a:off x="2331720" y="1303020"/>
               <a:ext cx="3573780" cy="1371600"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4712,7 +5241,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{14448957-2138-4DE3-A71E-AB788CD7D154}" name="PivotTable3" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{14448957-2138-4DE3-A71E-AB788CD7D154}" name="PivotTable3" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="A10:B15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="19">
     <pivotField showAll="0"/>
@@ -4806,6 +5335,52 @@
   <dataFields count="1">
     <dataField name="Sum of Total Revenue" fld="14" baseField="13" baseItem="0" numFmtId="164"/>
   </dataFields>
+  <formats count="12">
+    <format dxfId="41">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="40">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="39">
+      <pivotArea field="13" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="38">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="37">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="36">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="6">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="5">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="4">
+      <pivotArea field="13" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="3">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="2">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="1">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
   <chartFormats count="1">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
@@ -4910,6 +5485,56 @@
   <dataFields count="1">
     <dataField name="Count of OrderID" fld="0" subtotal="count" baseField="6" baseItem="0"/>
   </dataFields>
+  <formats count="12">
+    <format dxfId="34">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="33">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="32">
+      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="31">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="6" count="1">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="30">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="29">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="13">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="12">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="11">
+      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="10">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="6" count="1">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="9">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="8">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -4923,7 +5548,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3F49CAA5-CFEA-40AC-8497-7F66E465209C}" name="PivotTable1" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3F49CAA5-CFEA-40AC-8497-7F66E465209C}" name="PivotTable1" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="19">
     <pivotField showAll="0"/>
@@ -5017,6 +5642,52 @@
   <dataFields count="1">
     <dataField name="Sum of Total Profit" fld="15" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
+  <formats count="12">
+    <format dxfId="27">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="26">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="25">
+      <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="24">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="9" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="23">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="22">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="20">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="19">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="18">
+      <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="17">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="9" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="16">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="15">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
   <chartFormats count="1">
     <chartFormat chart="2" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
@@ -5110,11 +5781,11 @@
   <autoFilter ref="A1:S16" xr:uid="{13298F12-BCF4-4621-9476-DAB9633AFF00}"/>
   <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{87D972EF-8216-4289-B441-44529FC175BD}" name="OrderID"/>
-    <tableColumn id="2" xr3:uid="{58C321F2-E384-483C-BF38-3D8526AB6DA6}" name="Date" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{58C321F2-E384-483C-BF38-3D8526AB6DA6}" name="Date" dataDxfId="47"/>
     <tableColumn id="3" xr3:uid="{E6ADAE7F-AF69-4D2F-AC6C-E415851278C4}" name="Cust_ID"/>
     <tableColumn id="4" xr3:uid="{54ED0756-355D-4927-B42F-9D183920CA1D}" name="Prod_ID"/>
     <tableColumn id="5" xr3:uid="{D4D2B452-79EE-4BFC-98DC-79FAEC7841CA}" name="Qty"/>
-    <tableColumn id="6" xr3:uid="{69F8C0E1-A0BC-42B8-867D-0B051140100B}" name="Ship_Date" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{69F8C0E1-A0BC-42B8-867D-0B051140100B}" name="Ship_Date" dataDxfId="46"/>
     <tableColumn id="7" xr3:uid="{F77F683D-31B9-499F-A23F-80B34D3ED3B0}" name="Region"/>
     <tableColumn id="8" xr3:uid="{B9478285-8CDA-4845-9F60-7134B001DA81}" name="Promo_Code"/>
     <tableColumn id="9" xr3:uid="{5F9AE14B-77AF-40C0-8EE4-31C100F60858}" name="Product Name">
@@ -5135,16 +5806,16 @@
     <tableColumn id="14" xr3:uid="{0579FC74-A373-4746-A20F-A40FAEF0B16D}" name="Membership Tier">
       <calculatedColumnFormula>_xlfn.XLOOKUP(C2,Customer_database!A:A,Customer_database!D:D,"Unknown")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{0C7B251C-1D33-41F4-ADBE-CE765A1D5A2F}" name="Total Revenue" dataDxfId="3" dataCellStyle="Currency">
+    <tableColumn id="15" xr3:uid="{0C7B251C-1D33-41F4-ADBE-CE765A1D5A2F}" name="Total Revenue" dataDxfId="45" dataCellStyle="Currency">
       <calculatedColumnFormula>E2*L2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{33A4DF61-2BBC-459B-9073-12DB047C53F7}" name="Total Profit" dataDxfId="2">
+    <tableColumn id="16" xr3:uid="{33A4DF61-2BBC-459B-9073-12DB047C53F7}" name="Total Profit" dataDxfId="44">
       <calculatedColumnFormula>(L2-K2)*E2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{BFCBBCAF-BA75-40DA-92AC-10043F7C5541}" name="Days to Ship" dataDxfId="1">
+    <tableColumn id="17" xr3:uid="{BFCBBCAF-BA75-40DA-92AC-10043F7C5541}" name="Days to Ship" dataDxfId="43">
       <calculatedColumnFormula>F2-B2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{A9B4CA21-F4CD-48F4-ADFA-D15936BD06FD}" name="Status" dataDxfId="0">
+    <tableColumn id="18" xr3:uid="{A9B4CA21-F4CD-48F4-ADFA-D15936BD06FD}" name="Status" dataDxfId="42">
       <calculatedColumnFormula>IF(AND(Q2&gt;5,OR(G2="North",G2="South")),"CRITICAL DELAY",
 IF(Q2&gt;5,"Late","On Time"))</calculatedColumnFormula>
     </tableColumn>
@@ -5528,133 +6199,135 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D6E99CB-A459-4B18-ABE6-3C663E870EAF}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.21875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="5"/>
+    <col min="4" max="4" width="12.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="6" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="6" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="8">
         <v>2649.5300000000007</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="8">
         <v>2439.94</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="8">
         <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="8"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="8">
         <v>5239.4700000000012</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="6" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="8">
         <v>1004.97</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="8">
         <v>3039.6900000000005</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="8">
         <v>3924.8100000000004</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="B14" s="3"/>
+      <c r="B14" s="8"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="8">
         <v>7969.4700000000012</v>
       </c>
     </row>
